--- a/SMO/TemplateExcel/TONG_HOP_KE_HOACH.xlsx
+++ b/SMO/TemplateExcel/TONG_HOP_KE_HOACH.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2SProject\BPS_SKYPEC\SMO\TemplateExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D2S_PRỌECT\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30045A5-CA4E-4E2A-B002-8B8B7A51B982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tong_Hop_San_Luong" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Tong_Hop_Sua_Chua_Lon" sheetId="5" r:id="rId3"/>
     <sheet name="Tong_Hop_Chi_Phi" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,28 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
-  <si>
-    <t>VNA</t>
-  </si>
-  <si>
-    <t>HKVN#</t>
-  </si>
-  <si>
-    <t>HKQT</t>
-  </si>
-  <si>
-    <t>CỘNG</t>
-  </si>
-  <si>
-    <t>HKVN</t>
-  </si>
-  <si>
-    <t>TỔNG</t>
-  </si>
-  <si>
-    <t>SẢN LƯỢNG TRA NẠP THEO SÂN BAY</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>STT</t>
   </si>
@@ -110,7 +90,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -162,7 +142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -186,19 +166,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -251,38 +218,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -291,11 +258,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,11 +543,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,15 +560,15 @@
     <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="D2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -610,56 +577,40 @@
     <row r="3" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="11"/>
       <c r="C8" s="7"/>
@@ -669,18 +620,13 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D6:F6"/>
+  <mergeCells count="1">
     <mergeCell ref="D2:F3"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -688,7 +634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -709,11 +655,11 @@
     <row r="1" spans="1:9" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
-      <c r="C2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="C2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -721,9 +667,9 @@
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -735,25 +681,25 @@
     </row>
     <row r="6" spans="1:9" s="4" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="G6" s="9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -778,11 +724,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,18 +742,18 @@
     <row r="1" spans="1:7" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
-      <c r="C2" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="20"/>
+      <c r="C2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="19"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -818,19 +764,19 @@
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -853,7 +799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -871,18 +817,18 @@
     <row r="1" spans="1:7" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
-      <c r="C2" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="20"/>
+      <c r="C2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="19"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -893,27 +839,27 @@
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="16" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E7" s="16"/>
     </row>

--- a/SMO/TemplateExcel/TONG_HOP_KE_HOACH.xlsx
+++ b/SMO/TemplateExcel/TONG_HOP_KE_HOACH.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D2S_PRỌECT\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30045A5-CA4E-4E2A-B002-8B8B7A51B982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0131E75D-C32C-48A8-865F-286641BAA102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -206,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -234,9 +234,6 @@
     <xf numFmtId="2" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -250,6 +247,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -258,12 +267,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -557,71 +561,67 @@
     <col min="4" max="5" width="23.6640625" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:10" s="4" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="9"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="11"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
       <c r="B9" s="8"/>
     </row>
   </sheetData>
@@ -655,11 +655,11 @@
     <row r="1" spans="1:9" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -667,9 +667,9 @@
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -703,7 +703,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -712,7 +712,7 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="8"/>
     </row>
   </sheetData>
@@ -728,7 +728,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -742,18 +742,18 @@
     <row r="1" spans="1:7" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="19"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -780,14 +780,14 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="8"/>
     </row>
   </sheetData>
@@ -817,18 +817,18 @@
     <row r="1" spans="1:7" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="19"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -838,40 +838,40 @@
       <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="8"/>
     </row>
   </sheetData>

--- a/SMO/TemplateExcel/TONG_HOP_KE_HOACH.xlsx
+++ b/SMO/TemplateExcel/TONG_HOP_KE_HOACH.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D2S_PRỌECT\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0131E75D-C32C-48A8-865F-286641BAA102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C55F877-7182-4CDE-A6F3-3EFDB3C92AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -206,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -235,9 +235,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -249,12 +246,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -267,7 +271,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,7 +554,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,11 +570,11 @@
     <row r="2" spans="1:9" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -579,9 +582,9 @@
     <row r="3" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -592,37 +595,44 @@
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:9" s="4" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="9"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="22"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -655,11 +665,11 @@
     <row r="1" spans="1:9" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -667,9 +677,9 @@
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -703,7 +713,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -712,7 +722,7 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="8"/>
     </row>
   </sheetData>
@@ -742,18 +752,18 @@
     <row r="1" spans="1:7" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="18"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -780,14 +790,14 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="8"/>
     </row>
   </sheetData>
@@ -817,18 +827,18 @@
     <row r="1" spans="1:7" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="18"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -838,40 +848,40 @@
       <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="19" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="19"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="8"/>
     </row>
   </sheetData>

--- a/SMO/TemplateExcel/TONG_HOP_KE_HOACH.xlsx
+++ b/SMO/TemplateExcel/TONG_HOP_KE_HOACH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D2S_PRỌECT\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DC8CD2-976E-4204-8DC4-24AF83392BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674F5875-393D-48A7-A2ED-AA6EF4835118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -430,8 +430,8 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D2" sqref="D2:F3"/>
+      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,6 +441,14 @@
     <col min="4" max="6" width="23.6640625" customWidth="1"/>
     <col min="7" max="7" width="22.33203125" customWidth="1"/>
     <col min="8" max="8" width="23.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="18.109375" customWidth="1"/>
+    <col min="13" max="13" width="19.21875" customWidth="1"/>
+    <col min="14" max="14" width="18.44140625" customWidth="1"/>
+    <col min="15" max="15" width="18.21875" customWidth="1"/>
+    <col min="16" max="16" width="18.44140625" customWidth="1"/>
+    <col min="17" max="17" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
